--- a/source/template_input/template.xlsx
+++ b/source/template_input/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliano.roberti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliano.roberti/code/accenture/ISBA/report_output_excel/source/template_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99D39EC-4E0A-0F46-9319-BA9047664ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED5A89-6914-7441-887F-D9812BC8752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A00EB27A-A97A-454E-95E0-9C07ABC1A5D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>{o_t_1}</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>{o_t_2}</t>
+  </si>
+  <si>
+    <t>{o_t_4}</t>
+  </si>
+  <si>
+    <t>CMM Report</t>
+  </si>
+  <si>
+    <t>this is a report from origin</t>
   </si>
 </sst>
 </file>
@@ -60,15 +69,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -76,12 +91,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,27 +499,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC432C7-E1E3-214C-AE3C-CBD2FC4AB958}">
-  <dimension ref="B5:F10"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
+      <c r="D5" t="s">
         <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/source/template_input/template.xlsx
+++ b/source/template_input/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliano.roberti/code/accenture/ISBA/report_output_excel/source/template_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CED5A89-6914-7441-887F-D9812BC8752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69B8797-8D73-9F4B-87A2-45348F204C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{A00EB27A-A97A-454E-95E0-9C07ABC1A5D2}"/>
+    <workbookView xWindow="-32060" yWindow="-3460" windowWidth="32060" windowHeight="21100" xr2:uid="{A00EB27A-A97A-454E-95E0-9C07ABC1A5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>{o_t_1}</t>
   </si>
@@ -47,20 +47,110 @@
     <t>{o_t_2}</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{o_t_5}</t>
+  </si>
+  <si>
     <t>{o_t_4}</t>
   </si>
   <si>
-    <t>CMM Report</t>
-  </si>
-  <si>
-    <t>this is a report from origin</t>
+    <t>Net Campaign Delivery - Reach and Frequency</t>
+  </si>
+  <si>
+    <t>Meaused Entity</t>
+  </si>
+  <si>
+    <t>Media Type</t>
+  </si>
+  <si>
+    <t>Impression Filter</t>
+  </si>
+  <si>
+    <t>total Campaign Reach</t>
+  </si>
+  <si>
+    <t>Total Net Campaign Reach %</t>
+  </si>
+  <si>
+    <t>Average Frequency</t>
+  </si>
+  <si>
+    <t>Campaign duplication, unique reach and cross-over / overlap</t>
+  </si>
+  <si>
+    <t>(Siloed) Gross Reach</t>
+  </si>
+  <si>
+    <t>Unique Reach</t>
+  </si>
+  <si>
+    <t>You Tube AMI</t>
+  </si>
+  <si>
+    <t>Liner TV AMI</t>
+  </si>
+  <si>
+    <t>Meta AMI</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>total duplicated Net Campaign Reach</t>
+  </si>
+  <si>
+    <t>33, 714, 428</t>
+  </si>
+  <si>
+    <t>Linear TV, Google</t>
+  </si>
+  <si>
+    <t>Liner TV, Meta, Google</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>other, video</t>
+  </si>
+  <si>
+    <t>MRC Standard</t>
+  </si>
+  <si>
+    <t>All Measurable Impressions</t>
+  </si>
+  <si>
+    <t>{o_t_7}</t>
+  </si>
+  <si>
+    <t>{o_t_8}</t>
+  </si>
+  <si>
+    <t>{o_t_9}</t>
+  </si>
+  <si>
+    <t>{o_t_10}</t>
+  </si>
+  <si>
+    <t>{o_t_11}</t>
+  </si>
+  <si>
+    <t>{o_t_12}</t>
+  </si>
+  <si>
+    <t>{o_t_13}</t>
+  </si>
+  <si>
+    <t>{o_t_14}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,8 +158,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,12 +212,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -91,80 +249,42 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,64 +619,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC432C7-E1E3-214C-AE3C-CBD2FC4AB958}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B17:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/source/template_input/template.xlsx
+++ b/source/template_input/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliano.roberti/code/accenture/ISBA/report_output_excel/source/template_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69B8797-8D73-9F4B-87A2-45348F204C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A1049-D10F-C140-AEF0-B58E8C76E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32060" yWindow="-3460" windowWidth="32060" windowHeight="21100" xr2:uid="{A00EB27A-A97A-454E-95E0-9C07ABC1A5D2}"/>
+    <workbookView xWindow="-22640" yWindow="-3960" windowWidth="22640" windowHeight="20820" xr2:uid="{A00EB27A-A97A-454E-95E0-9C07ABC1A5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,6 +150,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -253,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,13 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -277,14 +274,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +628,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -642,91 +648,86 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
@@ -739,63 +740,60 @@
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>

--- a/source/template_input/template.xlsx
+++ b/source/template_input/template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliano.roberti/code/accenture/ISBA/report_output_excel/source/template_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A1049-D10F-C140-AEF0-B58E8C76E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AE9F58-9A36-F445-A543-B43C44F12234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22640" yWindow="-3960" windowWidth="22640" windowHeight="20820" xr2:uid="{A00EB27A-A97A-454E-95E0-9C07ABC1A5D2}"/>
+    <workbookView xWindow="-23800" yWindow="-4020" windowWidth="23800" windowHeight="20880" xr2:uid="{A00EB27A-A97A-454E-95E0-9C07ABC1A5D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>{o_t_1}</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>{o_t_14}</t>
+  </si>
+  <si>
+    <t>Example Narrative:</t>
+  </si>
+  <si>
+    <t>sample narrative for the report</t>
   </si>
 </sst>
 </file>
@@ -153,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,13 +189,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="14"/>
@@ -205,8 +204,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,19 +229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,6 +245,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -256,41 +264,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,7 +633,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,152 +653,165 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="E14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="17" t="s">
         <v>35</v>
       </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -805,8 +823,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E14:G15"/>
+    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
